--- a/Dataset/Folds/Fold_5/Excel/103.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/103.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="440">
   <si>
     <t>Doi</t>
   </si>
@@ -1379,6 +1379,122 @@
   </si>
   <si>
     <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                           Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                           Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                           Faris Jamal%AlMutairi%faris11300@gmail.com%1,                           Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                           David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                            Nikki%Lam%NULL%2,                            Nikki%Lam%NULL%0,                            Benjamin%Woo%NULL%1,                            Kylie%Zeng%kzeng2@student.touro.edu%2,                            Kylie%Zeng%kzeng2@student.touro.edu%0,                            Stephanie N%Bernardo%NULL%2,                            Stephanie N%Bernardo%NULL%0,                            Weldon E%Havins%NULL%2,                            Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                            Guy%Fagherazzi%NULL%1,                            Juan%Yang%NULL%0,                            Juan%Yang%NULL%0,                            Claire%Wang%NULL%1,                            Céline%Mavrot%NULL%1,                            Carlos K H%Wong%NULL%2,                            Carlos K H%Wong%NULL%0,                            Janet Y H%Wong%NULL%2,                            Janet Y H%Wong%NULL%0,                            Eric H M%Tang%NULL%2,                            Eric H M%Tang%NULL%0,                            Chi Ho%Au%NULL%2,                            Chi Ho%Au%NULL%0,                            Kristy T K%Lau%NULL%2,                            Kristy T K%Lau%NULL%0,                            Abraham K C%Wai%awai@hku.hk%2,                            Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                            Guy%Harling%NULL%2,                            Guy%Harling%NULL%0,                            Zahra%Reynolds%NULL%2,                            Zahra%Reynolds%NULL%0,                            Rebecca F.%Gilbert%NULL%1,                            Sebastien%Haneuse%NULL%2,                            Sebastien%Haneuse%NULL%0,                            Atheendar S.%Venkataramani%NULL%2,                            Atheendar S.%Venkataramani%NULL%0,                            Alexander C.%Tsai%NULL%2,                            Alexander C.%Tsai%NULL%0,                            Donald A.%Redelmeier%NULL%3,                            Donald A.%Redelmeier%NULL%0,                            Donald A.%Redelmeier%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                            Jie%Gao%NULL%1,                            Hua%Wang%NULL%1,                            Xiao-long%Wu%NULL%1,                            Qin-fang%Yuan%NULL%1,                            Fei-yu%Guo%NULL%1,                            Zhi-jie%Zhang%NULL%1,                            Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                            Sheikh Taslim%Ali%NULL%0,                            Tiffany W Y%Ng%NULL%0,                            Tim K%Tsang%NULL%0,                            Julian C M%Li%NULL%0,                            Min Whui%Fong%NULL%0,                            Qiuyan%Liao%NULL%0,                            Mike YW%Kwan%NULL%0,                            So Lun%Lee%NULL%0,                            Susan S%Chiu%NULL%0,                            Joseph T%Wu%NULL%0,                            Peng%Wu%pengwu@hku.hk%0,                            Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                            Shuk-Ching%Wong%NULL%1,                            Vivien Wai-Man%Chuang%NULL%1,                            Simon Yung-Chun%So%NULL%1,                            Jonathan Hon-Kwan%Chen%NULL%1,                            Siddharth%Sridhar%NULL%1,                            Kelvin Kai-Wang%To%NULL%0,                            Jasper Fuk-Woo%Chan%NULL%0,                            Ivan Fan-Ngai%Hung%NULL%0,                            Pak-Leung%Ho%NULL%1,                            Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                            Pham Nguyen Hong%Ngoc%NULL%1,                            Nguyen Minh%Hai%NULL%1,                            Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                            Hak Jun%Hyun%NULL%1,                            Jin Gu%Yun%NULL%1,                            Ji Yun%Noh%NULL%1,                            Hee Jin%Cheong%NULL%0,                            Woo Joo%Kim%NULL%0,                            Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                            Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                            Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                            Faris Jamal%AlMutairi%faris11300@gmail.com%1,                            Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                            David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                             Nikki%Lam%NULL%2,                             Nikki%Lam%NULL%0,                             Benjamin%Woo%NULL%1,                             Kylie%Zeng%kzeng2@student.touro.edu%2,                             Kylie%Zeng%kzeng2@student.touro.edu%0,                             Stephanie N%Bernardo%NULL%2,                             Stephanie N%Bernardo%NULL%0,                             Weldon E%Havins%NULL%2,                             Weldon E%Havins%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                             Guy%Fagherazzi%NULL%1,                             Juan%Yang%NULL%0,                             Juan%Yang%NULL%0,                             Claire%Wang%NULL%1,                             Céline%Mavrot%NULL%1,                             Carlos K H%Wong%NULL%2,                             Carlos K H%Wong%NULL%0,                             Janet Y H%Wong%NULL%2,                             Janet Y H%Wong%NULL%0,                             Eric H M%Tang%NULL%2,                             Eric H M%Tang%NULL%0,                             Chi Ho%Au%NULL%2,                             Chi Ho%Au%NULL%0,                             Kristy T K%Lau%NULL%2,                             Kristy T K%Lau%NULL%0,                             Abraham K C%Wai%awai@hku.hk%2,                             Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%1,                             Guy%Harling%NULL%2,                             Guy%Harling%NULL%0,                             Zahra%Reynolds%NULL%2,                             Zahra%Reynolds%NULL%0,                             Rebecca F.%Gilbert%NULL%1,                             Sebastien%Haneuse%NULL%2,                             Sebastien%Haneuse%NULL%0,                             Atheendar S.%Venkataramani%NULL%2,                             Atheendar S.%Venkataramani%NULL%0,                             Alexander C.%Tsai%NULL%2,                             Alexander C.%Tsai%NULL%0,                             Donald A.%Redelmeier%NULL%3,                             Donald A.%Redelmeier%NULL%0,                             Donald A.%Redelmeier%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%1,                             Jie%Gao%NULL%1,                             Hua%Wang%NULL%1,                             Xiao-long%Wu%NULL%1,                             Qin-fang%Yuan%NULL%1,                             Fei-yu%Guo%NULL%1,                             Zhi-jie%Zhang%NULL%1,                             Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0,                             Sheikh Taslim%Ali%NULL%0,                             Tiffany W Y%Ng%NULL%0,                             Tim K%Tsang%NULL%0,                             Julian C M%Li%NULL%0,                             Min Whui%Fong%NULL%0,                             Qiuyan%Liao%NULL%0,                             Mike YW%Kwan%NULL%0,                             So Lun%Lee%NULL%0,                             Susan S%Chiu%NULL%0,                             Joseph T%Wu%NULL%0,                             Peng%Wu%pengwu@hku.hk%0,                             Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%1,                             Shuk-Ching%Wong%NULL%1,                             Vivien Wai-Man%Chuang%NULL%1,                             Simon Yung-Chun%So%NULL%1,                             Jonathan Hon-Kwan%Chen%NULL%1,                             Siddharth%Sridhar%NULL%1,                             Kelvin Kai-Wang%To%NULL%0,                             Jasper Fuk-Woo%Chan%NULL%0,                             Ivan Fan-Ngai%Hung%NULL%0,                             Pak-Leung%Ho%NULL%1,                             Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%1,                             Pham Nguyen Hong%Ngoc%NULL%1,                             Nguyen Minh%Hai%NULL%1,                             Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%1,                             Hak Jun%Hyun%NULL%1,                             Jin Gu%Yun%NULL%1,                             Ji Yun%Noh%NULL%1,                             Hee Jin%Cheong%NULL%0,                             Woo Joo%Kim%NULL%0,                             Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%1,                             Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1,                             Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1,                             Faris Jamal%AlMutairi%faris11300@gmail.com%1,                             Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1,                             David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>JMIR Publications</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0, Guy%Fagherazzi%NULL%1, Juan%Yang%NULL%0, Juan%Yang%NULL%0, Claire%Wang%NULL%1, Céline%Mavrot%NULL%1, Carlos K H%Wong%NULL%2, Carlos K H%Wong%NULL%0, Janet Y H%Wong%NULL%2, Janet Y H%Wong%NULL%0, Eric H M%Tang%NULL%2, Eric H M%Tang%NULL%0, Chi Ho%Au%NULL%2, Chi Ho%Au%NULL%0, Kristy T K%Lau%NULL%2, Kristy T K%Lau%NULL%0, Abraham K C%Wai%awai@hku.hk%2, Abraham K C%Wai%awai@hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Mark J.%Siedner%NULL%0, Guy%Harling%NULL%2, Guy%Harling%NULL%0, Zahra%Reynolds%NULL%2, Zahra%Reynolds%NULL%0, Rebecca F.%Gilbert%NULL%1, Sebastien%Haneuse%NULL%2, Sebastien%Haneuse%NULL%0, Atheendar S.%Venkataramani%NULL%2, Atheendar S.%Venkataramani%NULL%0, Alexander C.%Tsai%NULL%2, Alexander C.%Tsai%NULL%0, Donald A.%Redelmeier%NULL%3, Donald A.%Redelmeier%NULL%0, Donald A.%Redelmeier%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Ke-wei%Wang%NULL%0, Jie%Gao%NULL%1, Hua%Wang%NULL%0, Xiao-long%Wu%NULL%1, Qin-fang%Yuan%NULL%1, Fei-yu%Guo%NULL%1, Zhi-jie%Zhang%NULL%1, Yang%Cheng%woerseng@126.com%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Benjamin J%Cowling%NULL%0, Sheikh Taslim%Ali%NULL%0, Tiffany W Y%Ng%NULL%0, Tim K%Tsang%NULL%0, Julian C M%Li%NULL%0, Min Whui%Fong%NULL%0, Qiuyan%Liao%NULL%0, Mike YW%Kwan%NULL%0, So Lun%Lee%NULL%0, Susan S%Chiu%NULL%0, Joseph T%Wu%NULL%0, Peng%Wu%pengwu@hku.hk%0, Gabriel M%Leung%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Vincent Chi-Chung%Cheng%NULL%0, Shuk-Ching%Wong%NULL%0, Vivien Wai-Man%Chuang%NULL%1, Simon Yung-Chun%So%NULL%1, Jonathan Hon-Kwan%Chen%NULL%1, Siddharth%Sridhar%NULL%0, Kelvin Kai-Wang%To%NULL%0, Jasper Fuk-Woo%Chan%NULL%0, Ivan Fan-Ngai%Hung%NULL%0, Pak-Leung%Ho%NULL%0, Kwok-Yung%Yuen%NULL%0]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the end of 2019, an unprecedented novel coronavirus, which was named COVID-19 by the World Health Organization (WHO) emerged from Wuhan city, China.
+ Despite rigorous global containment and quarantine efforts, the incidence of COVID-19 has continued to rise, with over 4 million confirmed-cases and over 300,000 deaths worldwide until mid-May.
+ This study aims to present the effect of the promulgation of social distancing measures on the spread of COVID-19 in the cases of 10 highly infected countries.
+ The authors focus on the statistics of the COVID-19 confirmed-cases and deaths in 10 highly infected countries, including The U.
+S.
+, Spain, Italy, The U.
+K.
+, France, Germany, Russia, Turkey, Iran and China, and the response to the pandemic of these countries in the period from January 11 to May 2, 2020. The relationships between the social distancing measures and the statistics of COVID-19 confirmed-cases and deaths were analyzed in order to elucidate the effectiveness of the social distancing measures on the spread of COVID-19 in 10 highly infected countries.
+ The results showed it took1–4 weeks since the highest level of social distancing measures promulgation until the daily confirmed-cases and deaths showed signs of decreasing.
+ The effectiveness of the social distancing measures on the spread of COVID-19 was different between the 10 focused countries.
+ This variation is due to the difference in the levels of promulgated social distancing measures, as well as the difference in the COVID-19 spread situation at the time of promulgation between the countries.
+</t>
+  </si>
+  <si>
+    <t>[Tran Phuoc Bao%Thu%NULL%0, Pham Nguyen Hong%Ngoc%NULL%1, Nguyen Minh%Hai%NULL%1, Le Anh%Tuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Hye%Seong%NULL%0, Hak Jun%Hyun%NULL%1, Jin Gu%Yun%NULL%1, Ji Yun%Noh%NULL%0, Hee Jin%Cheong%NULL%0, Woo Joo%Kim%NULL%0, Joon Young%Song%NULL%0]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Ltd on behalf of International Society for Infectious Diseases.</t>
+  </si>
+  <si>
+    <t>[Sultan Ayoub%Meo%sultanmeo@hotmail.com%0, Abdulelah Adnan%Abukhalaf%Abdulelahabukhalaf@gmail.com%1, Ali Abdullah%Alomar%AliAlomarMD@gmail.com%1, Faris Jamal%AlMutairi%faris11300@gmail.com%1, Adnan Mahmood%Usmani%adnan_mahmood71@hotmail.com%1, David C.%Klonoff%dklonoff@diabetestechnology.org%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1879,7 @@
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>
@@ -1775,10 +1891,10 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1911,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -1807,10 +1923,10 @@
         <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>116</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1943,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -1839,10 +1955,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5">
@@ -1853,25 +1969,25 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c r="J5" t="s">
         <v>116</v>
@@ -1885,25 +2001,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
         <v>116</v>
@@ -1917,28 +2033,28 @@
         <v>43931.0</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>116</v>
       </c>
       <c r="J7" t="s">
-        <v>332</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -1955,7 +2071,7 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="F8" t="s">
         <v>60</v>
@@ -1967,10 +2083,10 @@
         <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9">
@@ -1987,7 +2103,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -1999,10 +2115,10 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10">
@@ -2019,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
@@ -2031,10 +2147,10 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11">
@@ -2048,10 +2164,10 @@
         <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2063,10 +2179,10 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
@@ -2083,7 +2199,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="F12" t="s">
         <v>79</v>
@@ -2095,10 +2211,10 @@
         <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13">
@@ -2112,10 +2228,10 @@
         <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2127,10 +2243,10 @@
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14">
